--- a/data/output/attendence of A03 and A05 and A11.xlsx
+++ b/data/output/attendence of A03 and A05 and A11.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3459,7 +3459,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/attendence of A03 and A05 and A11.xlsx
+++ b/data/output/attendence of A03 and A05 and A11.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
